--- a/final_data_pipeline/output/322291longform.xlsx
+++ b/final_data_pipeline/output/322291longform.xlsx
@@ -1320,7 +1320,7 @@
         <v>67</v>
       </c>
       <c r="AA8">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB8">
         <v>8000</v>
@@ -1412,7 +1412,7 @@
         <v>67</v>
       </c>
       <c r="AA9">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB9">
         <v>8000</v>
@@ -1504,7 +1504,7 @@
         <v>67</v>
       </c>
       <c r="AA10">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB10">
         <v>8000</v>
@@ -1596,7 +1596,7 @@
         <v>67</v>
       </c>
       <c r="AA11">
-        <v>10</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="AB11">
         <v>8000</v>
@@ -1685,7 +1685,7 @@
         <v>67</v>
       </c>
       <c r="AA12">
-        <v>10</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="AB12">
         <v>8000</v>
@@ -1777,7 +1777,7 @@
         <v>67</v>
       </c>
       <c r="AA13">
-        <v>10</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="AB13">
         <v>8000</v>
@@ -3780,7 +3780,7 @@
         <v>67</v>
       </c>
       <c r="AA35">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB35">
         <v>8000</v>
@@ -3872,7 +3872,7 @@
         <v>67</v>
       </c>
       <c r="AA36">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB36">
         <v>8000</v>
@@ -3961,7 +3961,7 @@
         <v>67</v>
       </c>
       <c r="AA37">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB37">
         <v>8000</v>
@@ -4053,7 +4053,7 @@
         <v>67</v>
       </c>
       <c r="AA38">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB38">
         <v>8000</v>
@@ -4142,7 +4142,7 @@
         <v>67</v>
       </c>
       <c r="AA39">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB39">
         <v>8000</v>
@@ -4234,7 +4234,7 @@
         <v>67</v>
       </c>
       <c r="AA40">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AB40">
         <v>8000</v>
